--- a/InputData/io-model/VoSTR/VAT or Sales Tax Rate.xlsx
+++ b/InputData/io-model/VoSTR/VAT or Sales Tax Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\io-model\VoSTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\state-eps-data-repository\CA\io-model\VoSTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3822F9E0-72EC-4A65-A6A7-42D1AFB657F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D44E57-D8E0-403C-B513-70DE5C3F7C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="6780" windowWidth="15240" windowHeight="10545" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Average Tax Rate" sheetId="5" r:id="rId5"/>
     <sheet name="VoSTR" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1516,7 +1516,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1551,21 +1551,25 @@
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1584,11 +1588,13 @@
       <i/>
       <sz val="15"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1762,9 +1768,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1802,9 +1808,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1837,26 +1843,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1889,26 +1878,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2088,7 +2060,7 @@
       <selection activeCell="F2" sqref="F2:F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -2096,7 +2068,7 @@
     <col min="5" max="6" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2104,7 +2076,7 @@
         <v>344</v>
       </c>
       <c r="C1" s="16">
-        <v>44827</v>
+        <v>45298</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>335</v>
@@ -2113,7 +2085,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="str">
         <f>INDEX(F:F,MATCH(B1,E:E,0))</f>
         <v>CA</v>
@@ -2126,7 +2098,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>329</v>
       </c>
@@ -2143,7 +2115,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>331</v>
       </c>
@@ -2154,7 +2126,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <v>2022</v>
       </c>
@@ -2165,7 +2137,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>49</v>
       </c>
@@ -2176,7 +2148,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>332</v>
       </c>
@@ -2187,7 +2159,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" s="13" t="s">
         <v>348</v>
       </c>
@@ -2195,7 +2167,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>330</v>
       </c>
@@ -2209,7 +2181,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>331</v>
       </c>
@@ -2220,7 +2192,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>2022</v>
       </c>
@@ -2231,7 +2203,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>228</v>
       </c>
@@ -2242,7 +2214,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>333</v>
       </c>
@@ -2253,7 +2225,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="E14" s="13" t="s">
         <v>360</v>
@@ -2262,7 +2234,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>487</v>
       </c>
@@ -2273,7 +2245,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>488</v>
       </c>
@@ -2284,7 +2256,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>2022</v>
       </c>
@@ -2295,7 +2267,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>486</v>
       </c>
@@ -2306,7 +2278,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>489</v>
       </c>
@@ -2317,7 +2289,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E20" s="13" t="s">
         <v>372</v>
       </c>
@@ -2325,7 +2297,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" s="13" t="s">
         <v>374</v>
       </c>
@@ -2333,7 +2305,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E22" s="13" t="s">
         <v>376</v>
       </c>
@@ -2341,7 +2313,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E23" s="13" t="s">
         <v>378</v>
       </c>
@@ -2349,7 +2321,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E24" s="13" t="s">
         <v>380</v>
       </c>
@@ -2357,7 +2329,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E25" s="13" t="s">
         <v>382</v>
       </c>
@@ -2365,7 +2337,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -2376,7 +2348,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -2387,7 +2359,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E28" s="13" t="s">
         <v>388</v>
       </c>
@@ -2395,7 +2367,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2406,7 +2378,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2417,7 +2389,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E31" s="13" t="s">
         <v>394</v>
       </c>
@@ -2425,7 +2397,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>326</v>
       </c>
@@ -2436,7 +2408,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>327</v>
       </c>
@@ -2447,7 +2419,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>328</v>
       </c>
@@ -2458,7 +2430,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E35" s="13" t="s">
         <v>402</v>
       </c>
@@ -2466,7 +2438,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E36" s="13" t="s">
         <v>404</v>
       </c>
@@ -2474,7 +2446,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E37" s="13" t="s">
         <v>406</v>
       </c>
@@ -2482,7 +2454,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E38" s="13" t="s">
         <v>408</v>
       </c>
@@ -2490,7 +2462,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E39" s="13" t="s">
         <v>410</v>
       </c>
@@ -2498,7 +2470,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E40" s="13" t="s">
         <v>412</v>
       </c>
@@ -2506,7 +2478,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E41" s="13" t="s">
         <v>414</v>
       </c>
@@ -2514,7 +2486,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E42" s="13" t="s">
         <v>416</v>
       </c>
@@ -2522,7 +2494,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E43" s="13" t="s">
         <v>418</v>
       </c>
@@ -2530,7 +2502,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E44" s="13" t="s">
         <v>420</v>
       </c>
@@ -2538,7 +2510,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E45" s="13" t="s">
         <v>422</v>
       </c>
@@ -2546,7 +2518,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E46" s="13" t="s">
         <v>424</v>
       </c>
@@ -2554,7 +2526,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E47" s="13" t="s">
         <v>426</v>
       </c>
@@ -2562,7 +2534,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E48" s="13" t="s">
         <v>428</v>
       </c>
@@ -2570,7 +2542,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="49" spans="5:6">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E49" s="13" t="s">
         <v>334</v>
       </c>
@@ -2578,7 +2550,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="50" spans="5:6">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E50" s="13" t="s">
         <v>431</v>
       </c>
@@ -2586,7 +2558,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="5:6">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E51" s="13" t="s">
         <v>433</v>
       </c>
@@ -2606,17 +2578,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75">
+    <row r="1" spans="1:8" ht="27.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="19" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>335</v>
       </c>
@@ -2639,7 +2611,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>337</v>
       </c>
@@ -2665,7 +2637,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>339</v>
       </c>
@@ -2691,7 +2663,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>341</v>
       </c>
@@ -2717,7 +2689,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>343</v>
       </c>
@@ -2743,7 +2715,7 @@
         <v>6.1249999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>345</v>
       </c>
@@ -2769,7 +2741,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>347</v>
       </c>
@@ -2795,7 +2767,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>349</v>
       </c>
@@ -2821,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>351</v>
       </c>
@@ -2847,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>447</v>
       </c>
@@ -2870,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>353</v>
       </c>
@@ -2896,7 +2868,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>355</v>
       </c>
@@ -2922,7 +2894,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>357</v>
       </c>
@@ -2948,7 +2920,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>359</v>
       </c>
@@ -2974,7 +2946,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>361</v>
       </c>
@@ -3000,7 +2972,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>363</v>
       </c>
@@ -3026,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>365</v>
       </c>
@@ -3052,7 +3024,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>367</v>
       </c>
@@ -3078,7 +3050,7 @@
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>369</v>
       </c>
@@ -3104,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>371</v>
       </c>
@@ -3130,7 +3102,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>373</v>
       </c>
@@ -3156,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>375</v>
       </c>
@@ -3182,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>377</v>
       </c>
@@ -3208,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>379</v>
       </c>
@@ -3234,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>381</v>
       </c>
@@ -3260,7 +3232,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>383</v>
       </c>
@@ -3286,7 +3258,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>385</v>
       </c>
@@ -3312,7 +3284,7 @@
         <v>5.7630000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>387</v>
       </c>
@@ -3338,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>389</v>
       </c>
@@ -3364,7 +3336,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>391</v>
       </c>
@@ -3390,7 +3362,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>393</v>
       </c>
@@ -3416,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>395</v>
       </c>
@@ -3442,7 +3414,7 @@
         <v>3.313E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>397</v>
       </c>
@@ -3468,7 +3440,7 @@
         <v>4.3130000000000002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>399</v>
       </c>
@@ -3494,7 +3466,7 @@
         <v>4.8750000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>401</v>
       </c>
@@ -3520,7 +3492,7 @@
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>403</v>
       </c>
@@ -3546,7 +3518,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>405</v>
       </c>
@@ -3572,7 +3544,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>407</v>
       </c>
@@ -3598,7 +3570,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>409</v>
       </c>
@@ -3624,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>411</v>
       </c>
@@ -3650,7 +3622,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>413</v>
       </c>
@@ -3676,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>415</v>
       </c>
@@ -3702,7 +3674,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>417</v>
       </c>
@@ -3728,7 +3700,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>419</v>
       </c>
@@ -3754,7 +3726,7 @@
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>421</v>
       </c>
@@ -3780,7 +3752,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>423</v>
       </c>
@@ -3806,7 +3778,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>425</v>
       </c>
@@ -3832,7 +3804,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>427</v>
       </c>
@@ -3858,7 +3830,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>429</v>
       </c>
@@ -3884,7 +3856,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>430</v>
       </c>
@@ -3910,7 +3882,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>432</v>
       </c>
@@ -3936,7 +3908,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>434</v>
       </c>
@@ -3979,7 +3951,7 @@
       <selection pane="bottomRight" activeCell="CG8" sqref="CG8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="84" width="0" hidden="1" customWidth="1"/>
@@ -3987,7 +3959,7 @@
     <col min="86" max="86" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="18">
+    <row r="1" spans="1:86" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>49</v>
       </c>
@@ -4076,7 +4048,7 @@
       <c r="CF1" s="23"/>
       <c r="CG1" s="23"/>
     </row>
-    <row r="2" spans="1:86" ht="16.5">
+    <row r="2" spans="1:86" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>50</v>
       </c>
@@ -4165,7 +4137,7 @@
       <c r="CF2" s="23"/>
       <c r="CG2" s="23"/>
     </row>
-    <row r="3" spans="1:86">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>51</v>
       </c>
@@ -4254,7 +4226,7 @@
       <c r="CF3" s="23"/>
       <c r="CG3" s="23"/>
     </row>
-    <row r="4" spans="1:86">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>52</v>
       </c>
@@ -4343,7 +4315,7 @@
       <c r="CF4" s="23"/>
       <c r="CG4" s="23"/>
     </row>
-    <row r="6" spans="1:86">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>52</v>
       </c>
@@ -4600,7 +4572,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:86">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="4" t="s">
         <v>137</v>
@@ -4858,7 +4830,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:86">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -5118,7 +5090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:86">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -5378,7 +5350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:86">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -5638,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:86">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -5898,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:86">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -6158,7 +6130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:86">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -6418,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:86">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -6678,7 +6650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:86">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -6938,7 +6910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:86">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -7198,7 +7170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:86">
+    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -7458,7 +7430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:86">
+    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -7718,7 +7690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:86">
+    <row r="19" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -7978,7 +7950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:86">
+    <row r="20" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -8238,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:86">
+    <row r="21" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -8498,7 +8470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:86">
+    <row r="22" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -8758,7 +8730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:86">
+    <row r="23" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -9018,7 +8990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:86">
+    <row r="24" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -9278,7 +9250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:86">
+    <row r="25" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -9538,7 +9510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:86">
+    <row r="26" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -9798,7 +9770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:86">
+    <row r="27" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -10058,7 +10030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:86">
+    <row r="28" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -10318,7 +10290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:86">
+    <row r="29" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -10578,7 +10550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:86">
+    <row r="30" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -10838,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:86">
+    <row r="31" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -11098,7 +11070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:86">
+    <row r="32" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -11358,7 +11330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:86">
+    <row r="33" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -11618,7 +11590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:86">
+    <row r="34" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -11878,7 +11850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:86">
+    <row r="35" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -12138,7 +12110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:86">
+    <row r="36" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -12398,7 +12370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:86">
+    <row r="37" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -12658,7 +12630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:86">
+    <row r="38" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -12918,7 +12890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:86">
+    <row r="39" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -13178,7 +13150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:86">
+    <row r="40" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -13438,7 +13410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:86">
+    <row r="41" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -13698,7 +13670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:86">
+    <row r="42" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -13958,7 +13930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:86">
+    <row r="43" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -14218,7 +14190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:86">
+    <row r="44" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -14478,7 +14450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:86">
+    <row r="45" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -14738,7 +14710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:86">
+    <row r="46" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -14998,7 +14970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:86">
+    <row r="47" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -15258,7 +15230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:86">
+    <row r="48" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -15518,7 +15490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:86">
+    <row r="49" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -15778,7 +15750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:86">
+    <row r="50" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -16038,7 +16010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:86">
+    <row r="51" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -16298,7 +16270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:86">
+    <row r="52" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -16558,7 +16530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:86">
+    <row r="53" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -16818,7 +16790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:86">
+    <row r="54" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -17078,7 +17050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:86">
+    <row r="55" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -17338,7 +17310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:86">
+    <row r="56" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -17598,7 +17570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:86">
+    <row r="57" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -17858,7 +17830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:86">
+    <row r="58" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -18118,7 +18090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:86">
+    <row r="59" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>105</v>
       </c>
@@ -18378,7 +18350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:86">
+    <row r="60" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -18638,7 +18610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:86">
+    <row r="61" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>107</v>
       </c>
@@ -18898,7 +18870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:86">
+    <row r="62" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -19158,7 +19130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:86">
+    <row r="63" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -19418,7 +19390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:86">
+    <row r="64" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -19678,7 +19650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:86">
+    <row r="65" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>111</v>
       </c>
@@ -19938,7 +19910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:86">
+    <row r="66" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -20198,7 +20170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:86">
+    <row r="67" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>113</v>
       </c>
@@ -20458,7 +20430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:86">
+    <row r="68" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>114</v>
       </c>
@@ -20718,7 +20690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:86">
+    <row r="69" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -20978,7 +20950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:86">
+    <row r="70" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -21238,7 +21210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:86">
+    <row r="71" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>117</v>
       </c>
@@ -21498,7 +21470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:86">
+    <row r="72" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -21758,7 +21730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:86">
+    <row r="73" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -22018,7 +21990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:86">
+    <row r="74" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>120</v>
       </c>
@@ -22278,7 +22250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:86">
+    <row r="75" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -22538,7 +22510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:86">
+    <row r="76" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -22798,7 +22770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:86">
+    <row r="77" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>123</v>
       </c>
@@ -23058,7 +23030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:86">
+    <row r="78" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>124</v>
       </c>
@@ -23318,7 +23290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:86">
+    <row r="79" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>222</v>
       </c>
@@ -23578,7 +23550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:86">
+    <row r="80" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -23838,7 +23810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:85">
+    <row r="81" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>226</v>
       </c>
@@ -24116,12 +24088,12 @@
       <selection activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>228</v>
       </c>
@@ -24136,7 +24108,7 @@
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>229</v>
       </c>
@@ -24151,7 +24123,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>51</v>
       </c>
@@ -24166,7 +24138,7 @@
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>230</v>
       </c>
@@ -24181,7 +24153,7 @@
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>231</v>
       </c>
@@ -24204,7 +24176,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="4" t="s">
@@ -24235,7 +24207,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -24270,7 +24242,7 @@
         <v>3557.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -24305,7 +24277,7 @@
         <v>2368.1999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>243</v>
       </c>
@@ -24340,7 +24312,7 @@
         <v>671.7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>245</v>
       </c>
@@ -24375,7 +24347,7 @@
         <v>629.9</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>247</v>
       </c>
@@ -24410,7 +24382,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -24445,7 +24417,7 @@
         <v>1541.1</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -24480,7 +24452,7 @@
         <v>533.70000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>253</v>
       </c>
@@ -24515,7 +24487,7 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>255</v>
       </c>
@@ -24550,7 +24522,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>257</v>
       </c>
@@ -24585,7 +24557,7 @@
         <v>129.9</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>258</v>
       </c>
@@ -24620,7 +24592,7 @@
         <v>155.4</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>260</v>
       </c>
@@ -24655,7 +24627,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>262</v>
       </c>
@@ -24690,7 +24662,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>264</v>
       </c>
@@ -24725,7 +24697,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>266</v>
       </c>
@@ -24760,7 +24732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>268</v>
       </c>
@@ -24795,7 +24767,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>270</v>
       </c>
@@ -24830,7 +24802,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>272</v>
       </c>
@@ -24865,7 +24837,7 @@
         <v>916.3</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>274</v>
       </c>
@@ -24900,7 +24872,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>276</v>
       </c>
@@ -24935,7 +24907,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>278</v>
       </c>
@@ -24970,7 +24942,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -25005,7 +24977,7 @@
         <v>-9.3000000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -25040,7 +25012,7 @@
         <v>3413.7</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>282</v>
       </c>
@@ -25075,7 +25047,7 @@
         <v>2180.3000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>284</v>
       </c>
@@ -25110,7 +25082,7 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -25145,7 +25117,7 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>288</v>
       </c>
@@ -25180,7 +25152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>290</v>
       </c>
@@ -25215,7 +25187,7 @@
         <v>284.2</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>292</v>
       </c>
@@ -25250,7 +25222,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>294</v>
       </c>
@@ -25285,7 +25257,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>296</v>
       </c>
@@ -25320,7 +25292,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>297</v>
       </c>
@@ -25355,7 +25327,7 @@
         <v>143.6</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>299</v>
       </c>
@@ -25390,7 +25362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>301</v>
       </c>
@@ -25425,7 +25397,7 @@
         <v>137.6</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -25460,7 +25432,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>303</v>
       </c>
@@ -25495,7 +25467,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>305</v>
       </c>
@@ -25530,7 +25502,7 @@
         <v>3557.4</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>306</v>
       </c>
@@ -25565,7 +25537,7 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>308</v>
       </c>
@@ -25600,7 +25572,7 @@
         <v>3532.3</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>310</v>
       </c>
@@ -25635,7 +25607,7 @@
         <v>3413.7</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>311</v>
       </c>
@@ -25670,7 +25642,7 @@
         <v>450.3</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>313</v>
       </c>
@@ -25705,7 +25677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -25740,7 +25712,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>316</v>
       </c>
@@ -25775,7 +25747,7 @@
         <v>350.8</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>318</v>
       </c>
@@ -25810,7 +25782,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75">
+    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>320</v>
       </c>
@@ -25825,7 +25797,7 @@
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>321</v>
       </c>
@@ -25865,13 +25837,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>323</v>
       </c>
@@ -25880,7 +25852,7 @@
         <v>1795500000000</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -25889,7 +25861,7 @@
         <v>34904443000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>325</v>
       </c>
@@ -25914,13 +25886,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="30">
+    <row r="1" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -26051,7 +26023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
